--- a/Testdata/Non_Oncology/DataFiles/Protocol_Page/DownloadProtocol/Download_Protocol_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/Protocol_Page/DownloadProtocol/Download_Protocol_Data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\Protocol_Page\DownloadProtocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D37DE5-83D4-4B0C-9FB4-35EE21EE5D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44014E-D9B4-4235-B469-B1D79F6C78C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -328,11 +331,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,28 +619,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="88.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36" customWidth="1"/>
-    <col min="12" max="13" width="29.109375" customWidth="1"/>
-    <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36" style="2" customWidth="1"/>
+    <col min="12" max="13" width="29.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="24.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -649,7 +654,7 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -661,10 +666,10 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -676,10 +681,10 @@
       <c r="L1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -693,499 +698,499 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Testdata/Non_Oncology/DataFiles/Protocol_Page/DownloadProtocol/Download_Protocol_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/Protocol_Page/DownloadProtocol/Download_Protocol_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\Protocol_Page\DownloadProtocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44014E-D9B4-4235-B469-B1D79F6C78C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCCB706-D28C-43E1-8C9A-B3BE4B1DB928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,33 +142,21 @@
     <t>db_search_val</t>
   </si>
   <si>
-    <t>Clinical_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
     <t>\Testdata\Templates\SearchStrategy\Clinical&amp;RWE.xlsx</t>
   </si>
   <si>
     <t>Automation - Interventional search strategy databases</t>
   </si>
   <si>
-    <t>Economic_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
     <t>\Testdata\Templates\SearchStrategy\ECON.xlsx</t>
   </si>
   <si>
     <t>Automation - Econ search strategy databases</t>
   </si>
   <si>
-    <t>Quality of life_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
     <t>Automation - QOL search strategy databases</t>
   </si>
   <si>
-    <t>Real-world Evidence_search-strategy-template_Oncology.xlsx</t>
-  </si>
-  <si>
     <t>Automation - RWE search strategy databases</t>
   </si>
   <si>
@@ -187,13 +175,7 @@
     <t>pop4</t>
   </si>
   <si>
-    <t>Clinical-Interventional_search-strategy-template_Non-Oncology.xlsx</t>
-  </si>
-  <si>
     <t>Automation - Clinical - Interventional search strategy databases</t>
-  </si>
-  <si>
-    <t>Clinical-RWE_search-strategy-template_Non-Oncology.xlsx</t>
   </si>
   <si>
     <t>Automation - Clinical - RWE search strategy databases</t>
@@ -290,6 +272,24 @@
   </si>
   <si>
     <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\NonOncology_Clinical.xlsx</t>
+  </si>
+  <si>
+    <t>Clinical_search-strategy-template_Oncology</t>
+  </si>
+  <si>
+    <t>Economic_search-strategy-template_Oncology</t>
+  </si>
+  <si>
+    <t>Quality of life_search-strategy-template_Oncology</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_search-strategy-template_Oncology</t>
+  </si>
+  <si>
+    <t>Clinical-Interventional_search-strategy-template_Non-Oncology</t>
+  </si>
+  <si>
+    <t>Clinical-RWE_search-strategy-template_Non-Oncology</t>
   </si>
 </sst>
 </file>
@@ -331,12 +331,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,29 +618,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="36" style="2" customWidth="1"/>
-    <col min="12" max="13" width="29.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="24.44140625" style="2"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" customWidth="1"/>
+    <col min="11" max="11" width="36" customWidth="1"/>
+    <col min="12" max="13" width="29.109375" customWidth="1"/>
+    <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -649,12 +647,12 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -666,25 +664,25 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -698,499 +696,499 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="Q27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G28" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="K28" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="L29" t="s">
         <v>56</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Testdata/Non_Oncology/DataFiles/Protocol_Page/DownloadProtocol/Download_Protocol_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/Protocol_Page/DownloadProtocol/Download_Protocol_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\Protocol_Page\DownloadProtocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCCB706-D28C-43E1-8C9A-B3BE4B1DB928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB44454F-27C0-41D1-B683-580449E2BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="140">
   <si>
     <t>Economic</t>
   </si>
@@ -133,9 +133,6 @@
     <t>ExpectedFilenames</t>
   </si>
   <si>
-    <t>Template_name</t>
-  </si>
-  <si>
     <t>Files_to_upload</t>
   </si>
   <si>
@@ -259,21 +256,6 @@
     <t>ExpectedSourceTemplateFile</t>
   </si>
   <si>
-    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Oncology_Clinical.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Oncology_Economic.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Oncology_QOL.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Oncology_RWE.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\NonOncology_Clinical.xlsx</t>
-  </si>
-  <si>
     <t>Clinical_search-strategy-template_Oncology</t>
   </si>
   <si>
@@ -290,6 +272,198 @@
   </si>
   <si>
     <t>Clinical-RWE_search-strategy-template_Non-Oncology</t>
+  </si>
+  <si>
+    <t>stdy_type_locators</t>
+  </si>
+  <si>
+    <t>stdy_type_values</t>
+  </si>
+  <si>
+    <t>original_studies</t>
+  </si>
+  <si>
+    <t>records_number</t>
+  </si>
+  <si>
+    <t>fulltext_review</t>
+  </si>
+  <si>
+    <t>total_record_number</t>
+  </si>
+  <si>
+    <t>AddtionalParam</t>
+  </si>
+  <si>
+    <t>AddtionalParam_button</t>
+  </si>
+  <si>
+    <t>sectionname</t>
+  </si>
+  <si>
+    <t>Template_name_strategy</t>
+  </si>
+  <si>
+    <t>Template_name_prisma</t>
+  </si>
+  <si>
+    <t>Clinical_PRISMA-File-Template_Oncology</t>
+  </si>
+  <si>
+    <t>Prisma_Excel_File</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\PRISMA-File-Clinical.xlsx</t>
+  </si>
+  <si>
+    <t>lot_section2</t>
+  </si>
+  <si>
+    <t>lot_section2_checkbox</t>
+  </si>
+  <si>
+    <t>lot_section</t>
+  </si>
+  <si>
+    <t>study_design_section1</t>
+  </si>
+  <si>
+    <t>study_design_section1_checkbox</t>
+  </si>
+  <si>
+    <t>study_design_section</t>
+  </si>
+  <si>
+    <t>intervention_section6</t>
+  </si>
+  <si>
+    <t>intervention_section6_checkbox</t>
+  </si>
+  <si>
+    <t>intervention_section</t>
+  </si>
+  <si>
+    <t>study_design_section2</t>
+  </si>
+  <si>
+    <t>study_design_section2_checkbox</t>
+  </si>
+  <si>
+    <t>reported_variable_section2</t>
+  </si>
+  <si>
+    <t>reported_variable_section2_checkbox</t>
+  </si>
+  <si>
+    <t>reported_variable_section</t>
+  </si>
+  <si>
+    <t>Economic_PRISMA-File-Template_Oncology</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\PRISMA-File-Economic.xlsx</t>
+  </si>
+  <si>
+    <t>Quality of life_PRISMA-File-Template_Oncology</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\PRISMA-File-QOL.xlsx</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_PRISMA-File-Template_Oncology</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\PRISMA-File-RWE.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Protocol-Onco-Clinical.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Protocol-Onco-ECON.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Protocol-Onco-QOL.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Protocol-Onco-RWE.xlsx</t>
+  </si>
+  <si>
+    <t>ExpectedSourceTemplateFile_withoutdata</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\PRISMA-Oncology-WithoutData.xlsx</t>
+  </si>
+  <si>
+    <t>total_excluded_number</t>
+  </si>
+  <si>
+    <t>total_screenedTiAb_number</t>
+  </si>
+  <si>
+    <t>total_excluded_screenedTiAb_number</t>
+  </si>
+  <si>
+    <t>excluded_fulltext_review</t>
+  </si>
+  <si>
+    <t>fulltext_exclusion_reason</t>
+  </si>
+  <si>
+    <t>total_greyliterature_number</t>
+  </si>
+  <si>
+    <t>lot_section3</t>
+  </si>
+  <si>
+    <t>lot_section3_checkbox</t>
+  </si>
+  <si>
+    <t>geo_region_section2</t>
+  </si>
+  <si>
+    <t>geo_region_section2_checkbox</t>
+  </si>
+  <si>
+    <t>geo_region_section</t>
+  </si>
+  <si>
+    <t>reported_variable_section1</t>
+  </si>
+  <si>
+    <t>reported_variable_section1_checkbox</t>
+  </si>
+  <si>
+    <t>study_design_section2_1</t>
+  </si>
+  <si>
+    <t>study_design_section2_1_checkbox</t>
+  </si>
+  <si>
+    <t>Clinical-Interventional_PRISMA-File-Template_Non-Oncology</t>
+  </si>
+  <si>
+    <t>Clinical-RWE_PRISMA-File-Template_Non-Oncology</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\PRISMA-File-Clinical-RWE.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Protocol-NonOnco-WithoutData.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Protocol-NonOnco-Clinical-Intv&amp;Rwe.xlsx</t>
+  </si>
+  <si>
+    <t>pop6</t>
+  </si>
+  <si>
+    <t>pop7</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Protocol-NonOnco-Clinical-Intv.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Protocol-NonOnco-Clinical-Rwe.xlsx</t>
   </si>
 </sst>
 </file>
@@ -616,10 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,12 +817,12 @@
     <col min="17" max="17" width="46.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -674,39 +849,63 @@
         <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -727,22 +926,37 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="W2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -756,10 +970,16 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -773,10 +993,16 @@
         <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -784,10 +1010,16 @@
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="R5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -795,21 +1027,21 @@
         <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -830,21 +1062,45 @@
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8">
+        <v>500</v>
+      </c>
+      <c r="T8" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" t="s">
+        <v>91</v>
+      </c>
+      <c r="V8" t="s">
+        <v>92</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -855,10 +1111,25 @@
       <c r="J9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9">
+        <v>600</v>
+      </c>
+      <c r="T9" t="s">
+        <v>93</v>
+      </c>
+      <c r="U9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -869,35 +1140,47 @@
       <c r="J10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
         <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -918,21 +1201,36 @@
         <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s">
         <v>78</v>
       </c>
-      <c r="P14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>900</v>
+      </c>
+      <c r="W14" t="s">
+        <v>106</v>
+      </c>
+      <c r="X14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -943,10 +1241,16 @@
       <c r="J15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -957,35 +1261,47 @@
       <c r="J16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -1006,21 +1322,45 @@
         <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20">
+        <v>1300</v>
+      </c>
+      <c r="T20" t="s">
+        <v>96</v>
+      </c>
+      <c r="U20" t="s">
+        <v>97</v>
+      </c>
+      <c r="V20" t="s">
+        <v>98</v>
+      </c>
+      <c r="W20" t="s">
+        <v>108</v>
+      </c>
+      <c r="X20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1031,10 +1371,25 @@
       <c r="J21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21">
+        <v>1400</v>
+      </c>
+      <c r="T21" t="s">
+        <v>99</v>
+      </c>
+      <c r="U21" t="s">
+        <v>100</v>
+      </c>
+      <c r="V21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1045,38 +1400,59 @@
       <c r="J22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22">
+        <v>1500</v>
+      </c>
+      <c r="T22" t="s">
+        <v>101</v>
+      </c>
+      <c r="U22" t="s">
+        <v>102</v>
+      </c>
+      <c r="V22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>81</v>
+      </c>
+      <c r="S23">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1091,33 +1467,57 @@
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="N26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="R26" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26">
+        <v>100</v>
+      </c>
+      <c r="T26" t="s">
+        <v>122</v>
+      </c>
+      <c r="U26" t="s">
+        <v>123</v>
+      </c>
+      <c r="V26" t="s">
+        <v>92</v>
+      </c>
+      <c r="W26" t="s">
+        <v>131</v>
+      </c>
+      <c r="X26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1132,27 +1532,48 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="R27" t="s">
+        <v>116</v>
+      </c>
+      <c r="S27">
+        <v>200</v>
+      </c>
+      <c r="T27" t="s">
+        <v>93</v>
+      </c>
+      <c r="U27" t="s">
+        <v>94</v>
+      </c>
+      <c r="V27" t="s">
+        <v>95</v>
+      </c>
+      <c r="W27" t="s">
+        <v>132</v>
+      </c>
+      <c r="X27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1161,35 +1582,523 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="R28" t="s">
+        <v>117</v>
+      </c>
+      <c r="S28">
+        <v>300</v>
+      </c>
+      <c r="T28" t="s">
+        <v>129</v>
+      </c>
+      <c r="U28" t="s">
+        <v>130</v>
+      </c>
+      <c r="V28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" t="s">
         <v>55</v>
       </c>
-      <c r="L29" t="s">
+      <c r="R29" t="s">
+        <v>118</v>
+      </c>
+      <c r="S29">
+        <v>400</v>
+      </c>
+      <c r="T29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U29" t="s">
+        <v>125</v>
+      </c>
+      <c r="V29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
+      </c>
+      <c r="R30" t="s">
+        <v>80</v>
+      </c>
+      <c r="S30">
+        <v>500</v>
+      </c>
+      <c r="T30" t="s">
+        <v>127</v>
+      </c>
+      <c r="U30" t="s">
+        <v>128</v>
+      </c>
+      <c r="V30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" t="s">
+        <v>119</v>
+      </c>
+      <c r="S31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>120</v>
+      </c>
+      <c r="S32">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" t="s">
+        <v>121</v>
+      </c>
+      <c r="S33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" t="s">
+        <v>78</v>
+      </c>
+      <c r="S34">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" t="s">
+        <v>79</v>
+      </c>
+      <c r="S35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" t="s">
+        <v>138</v>
+      </c>
+      <c r="N37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" t="s">
+        <v>81</v>
+      </c>
+      <c r="S37">
+        <v>100</v>
+      </c>
+      <c r="W37" t="s">
+        <v>131</v>
+      </c>
+      <c r="X37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" t="s">
+        <v>68</v>
+      </c>
+      <c r="R38" t="s">
+        <v>116</v>
+      </c>
+      <c r="S38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>53</v>
+      </c>
+      <c r="R39" t="s">
+        <v>117</v>
+      </c>
+      <c r="S39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" t="s">
+        <v>54</v>
+      </c>
+      <c r="R40" t="s">
+        <v>118</v>
+      </c>
+      <c r="S40">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" t="s">
+        <v>80</v>
+      </c>
+      <c r="S41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="R42" t="s">
+        <v>119</v>
+      </c>
+      <c r="S42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="R43" t="s">
+        <v>120</v>
+      </c>
+      <c r="S43">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="R44" t="s">
+        <v>121</v>
+      </c>
+      <c r="S44">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="R45" t="s">
+        <v>78</v>
+      </c>
+      <c r="S45">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R46" t="s">
+        <v>79</v>
+      </c>
+      <c r="S46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N48" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48" t="s">
+        <v>75</v>
+      </c>
+      <c r="P48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>44</v>
+      </c>
+      <c r="R48" t="s">
+        <v>81</v>
+      </c>
+      <c r="S48">
+        <v>100</v>
+      </c>
+      <c r="W48" t="s">
+        <v>132</v>
+      </c>
+      <c r="X48" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" t="s">
+        <v>52</v>
+      </c>
+      <c r="N49" t="s">
+        <v>68</v>
+      </c>
+      <c r="R49" t="s">
+        <v>116</v>
+      </c>
+      <c r="S49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" t="s">
+        <v>53</v>
+      </c>
+      <c r="R50" t="s">
+        <v>117</v>
+      </c>
+      <c r="S50">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="L51" t="s">
+        <v>55</v>
+      </c>
+      <c r="R51" t="s">
+        <v>118</v>
+      </c>
+      <c r="S51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R52" t="s">
+        <v>80</v>
+      </c>
+      <c r="S52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+      <c r="R53" t="s">
+        <v>119</v>
+      </c>
+      <c r="S53">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="R54" t="s">
+        <v>120</v>
+      </c>
+      <c r="S54">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="R55" t="s">
+        <v>121</v>
+      </c>
+      <c r="S55">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="R56" t="s">
+        <v>78</v>
+      </c>
+      <c r="S56">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="R57" t="s">
+        <v>79</v>
+      </c>
+      <c r="S57">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/DataFiles/Protocol_Page/DownloadProtocol/Download_Protocol_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/Protocol_Page/DownloadProtocol/Download_Protocol_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\Protocol_Page\DownloadProtocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB44454F-27C0-41D1-B683-580449E2BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D757F-B0A3-490B-8D04-ECA9DE41D8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,15 +316,6 @@
     <t>\Testdata\Templates\PRISMA\PRISMA-File-Clinical.xlsx</t>
   </si>
   <si>
-    <t>lot_section2</t>
-  </si>
-  <si>
-    <t>lot_section2_checkbox</t>
-  </si>
-  <si>
-    <t>lot_section</t>
-  </si>
-  <si>
     <t>study_design_section1</t>
   </si>
   <si>
@@ -412,12 +403,6 @@
     <t>total_greyliterature_number</t>
   </si>
   <si>
-    <t>lot_section3</t>
-  </si>
-  <si>
-    <t>lot_section3_checkbox</t>
-  </si>
-  <si>
     <t>geo_region_section2</t>
   </si>
   <si>
@@ -464,6 +449,21 @@
   </si>
   <si>
     <t>\Testdata\Non_Oncology\Templates\Protocol\DownloadProtocol_ExpectedData\Protocol-NonOnco-Clinical-Rwe.xlsx</t>
+  </si>
+  <si>
+    <t>pop_filter2_section</t>
+  </si>
+  <si>
+    <t>pop_filter2_section2_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter2_section2</t>
+  </si>
+  <si>
+    <t>pop_filter2_section3_checkbox</t>
+  </si>
+  <si>
+    <t>pop_filter2_section3</t>
   </si>
 </sst>
 </file>
@@ -793,8 +793,8 @@
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X48" sqref="X48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +891,7 @@
         <v>88</v>
       </c>
       <c r="Y1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
@@ -953,7 +953,7 @@
         <v>89</v>
       </c>
       <c r="Y2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
         <v>71</v>
@@ -1080,22 +1080,22 @@
         <v>500</v>
       </c>
       <c r="T8" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="U8" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="V8" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1118,13 +1118,13 @@
         <v>600</v>
       </c>
       <c r="T9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="V9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -1201,7 +1201,7 @@
         <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
         <v>72</v>
@@ -1219,13 +1219,13 @@
         <v>900</v>
       </c>
       <c r="W14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="X14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O20" t="s">
         <v>73</v>
@@ -1340,22 +1340,22 @@
         <v>1300</v>
       </c>
       <c r="T20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -1378,13 +1378,13 @@
         <v>1400</v>
       </c>
       <c r="T21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="U21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="V21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -1407,13 +1407,13 @@
         <v>1500</v>
       </c>
       <c r="T22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -1473,7 +1473,7 @@
         <v>52</v>
       </c>
       <c r="M26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N26" t="s">
         <v>57</v>
@@ -1494,22 +1494,22 @@
         <v>100</v>
       </c>
       <c r="T26" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="U26" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="V26" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="W26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="X26" t="s">
         <v>89</v>
       </c>
       <c r="Y26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
@@ -1550,25 +1550,25 @@
         <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S27">
         <v>200</v>
       </c>
       <c r="T27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="V27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="X27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
@@ -1588,19 +1588,19 @@
         <v>53</v>
       </c>
       <c r="R28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S28">
         <v>300</v>
       </c>
       <c r="T28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="U28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="V28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -1620,19 +1620,19 @@
         <v>55</v>
       </c>
       <c r="R29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S29">
         <v>400</v>
       </c>
       <c r="T29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="V29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
@@ -1649,13 +1649,13 @@
         <v>500</v>
       </c>
       <c r="T30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U30" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="V30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
@@ -1663,7 +1663,7 @@
         <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S31">
         <v>600</v>
@@ -1674,7 +1674,7 @@
         <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S32">
         <v>700</v>
@@ -1685,7 +1685,7 @@
         <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S33">
         <v>800</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
         <v>60</v>
@@ -1745,7 +1745,7 @@
         <v>52</v>
       </c>
       <c r="M37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N37" t="s">
         <v>57</v>
@@ -1766,18 +1766,18 @@
         <v>100</v>
       </c>
       <c r="W37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="X37" t="s">
         <v>89</v>
       </c>
       <c r="Y37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>68</v>
       </c>
       <c r="R38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S38">
         <v>200</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -1812,7 +1812,7 @@
         <v>53</v>
       </c>
       <c r="R39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S39">
         <v>300</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -1832,7 +1832,7 @@
         <v>54</v>
       </c>
       <c r="R40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S40">
         <v>400</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S42">
         <v>600</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S43">
         <v>700</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S44">
         <v>800</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R45" t="s">
         <v>78</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R46" t="s">
         <v>79</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
         <v>60</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="M48" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N48" t="s">
         <v>57</v>
@@ -1960,18 +1960,18 @@
         <v>100</v>
       </c>
       <c r="W48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="X48" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Y48" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1986,7 +1986,7 @@
         <v>68</v>
       </c>
       <c r="R49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S49">
         <v>200</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -2006,7 +2006,7 @@
         <v>53</v>
       </c>
       <c r="R50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S50">
         <v>300</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2026,7 +2026,7 @@
         <v>55</v>
       </c>
       <c r="R51" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S51">
         <v>400</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S53">
         <v>600</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S54">
         <v>700</v>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S55">
         <v>800</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R56" t="s">
         <v>78</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R57" t="s">
         <v>79</v>
